--- a/biology/Zoologie/Hypsacantha_crucimaculata/Hypsacantha_crucimaculata.xlsx
+++ b/biology/Zoologie/Hypsacantha_crucimaculata/Hypsacantha_crucimaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsacantha crucimaculata, unique représentant du genre Hypsacantha, est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsacantha crucimaculata, unique représentant du genre Hypsacantha, est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Mozambique, au Zimbabwe, en Tanzanie, au Congo-Kinshasa et en Centrafrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Mozambique, au Zimbabwe, en Tanzanie, au Congo-Kinshasa et en Centrafrique.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5 mm[2].
-Les mâles mesurent de 3 à 5 mm et les femelles de 6 à 7 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5 mm.
+Les mâles mesurent de 3 à 5 mm et les femelles de 6 à 7 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Gasteracantha crucimaculata par Dahl en 1914. Elle est placée dans le genre Isoxya par Benoit en 1962[4] puis placée dans le genre Hypsacantha par Emerit en 1974[5].
-Ce genre a été décrit par Dahl en 1914 comme un sous-genre de Gasteracantha. Il est élevé au rang de genre par Emerit en 1973[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Gasteracantha crucimaculata par Dahl en 1914. Elle est placée dans le genre Isoxya par Benoit en 1962 puis placée dans le genre Hypsacantha par Emerit en 1974.
+Ce genre a été décrit par Dahl en 1914 comme un sous-genre de Gasteracantha. Il est élevé au rang de genre par Emerit en 1973.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dahl, 1914 : « Die Gasteracanthen des Berliner Zoologischen Museums und deren geographische Verbreitung. » Mitteilungen aus dem Zoologischen Museum in Berlin, vol. 7, p. 235-301 (texte intégral).</t>
         </is>
